--- a/report/mohandev@xyz.com_Bot_1_Output.xlsx
+++ b/report/mohandev@xyz.com_Bot_1_Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3798D9-54F2-4B23-BF64-A88FC8E88559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38D1BB-140C-475B-8E5E-31F837E62269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{10EB0AD8-D280-48A3-81F5-2F0E7A470201}"/>
+    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{31337FED-C770-473B-B769-C50211DEFEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -405,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041C12AC-11A0-4E36-8CD0-EB4C20AFE25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2787FB-E6AB-4E10-909E-E63F07434F19}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -425,7 +419,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>5</v>
